--- a/llm_stats/token_usage.xlsx
+++ b/llm_stats/token_usage.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,788 @@
         <v>217749.48</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-02-22 12:05:33</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Binary Tree Preorder Traversal</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>539</v>
+      </c>
+      <c r="F3" t="n">
+        <v>554</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1093</v>
+      </c>
+      <c r="H3" t="n">
+        <v>186136.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-02-22 12:21:22</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sudoku Solver</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1078</v>
+      </c>
+      <c r="F4" t="n">
+        <v>995</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2073</v>
+      </c>
+      <c r="H4" t="n">
+        <v>287830.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-02-23 10:11:03</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2816</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Double a Number Represented as a Linked List</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>874</v>
+      </c>
+      <c r="F5" t="n">
+        <v>415</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1289</v>
+      </c>
+      <c r="H5" t="n">
+        <v>159634.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-02-23 10:22:16</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2807</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Insert Greatest Common Divisors in Linked List</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>711</v>
+      </c>
+      <c r="F6" t="n">
+        <v>724</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1435</v>
+      </c>
+      <c r="H6" t="n">
+        <v>211209.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-02-23 10:41:25</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2181</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Merge Nodes in Between Zeros</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>584</v>
+      </c>
+      <c r="F7" t="n">
+        <v>474</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1058</v>
+      </c>
+      <c r="H7" t="n">
+        <v>136647.15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-02-24 12:36:54</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Interleaving String</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>695</v>
+      </c>
+      <c r="F8" t="n">
+        <v>670</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1365</v>
+      </c>
+      <c r="H8" t="n">
+        <v>194060.37</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-02-25 11:16:03</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Set Matrix Zeroes</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>578</v>
+      </c>
+      <c r="F9" t="n">
+        <v>457</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H9" t="n">
+        <v>148757.37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2026-02-25 11:46:20</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sort List</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>964</v>
+      </c>
+      <c r="F10" t="n">
+        <v>830</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1794</v>
+      </c>
+      <c r="H10" t="n">
+        <v>234671.43</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2026-02-26 09:15:53</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Factorial Trailing Zeroes</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>326</v>
+      </c>
+      <c r="F11" t="n">
+        <v>436</v>
+      </c>
+      <c r="G11" t="n">
+        <v>762</v>
+      </c>
+      <c r="H11" t="n">
+        <v>128573.75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2026-02-26 10:51:38</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2976</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Minimum Cost to Convert String I</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1181</v>
+      </c>
+      <c r="F12" t="n">
+        <v>441</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1622</v>
+      </c>
+      <c r="H12" t="n">
+        <v>170050.91</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-02-26 10:53:12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Factorial Trailing Zeroes</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>360</v>
+      </c>
+      <c r="F13" t="n">
+        <v>406</v>
+      </c>
+      <c r="G13" t="n">
+        <v>766</v>
+      </c>
+      <c r="H13" t="n">
+        <v>92313.27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2026-02-27 10:57:45</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Validate Binary Search Tree</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>606</v>
+      </c>
+      <c r="F14" t="n">
+        <v>657</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1263</v>
+      </c>
+      <c r="H14" t="n">
+        <v>165117.18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2026-02-27 11:01:13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Convert Sorted List to Binary Search Tree</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>848</v>
+      </c>
+      <c r="F15" t="n">
+        <v>674</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1522</v>
+      </c>
+      <c r="H15" t="n">
+        <v>205444.76</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2026-02-27 11:04:02</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Lowest Common Ancestor of a Binary Search Tree</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>559</v>
+      </c>
+      <c r="F16" t="n">
+        <v>609</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1168</v>
+      </c>
+      <c r="H16" t="n">
+        <v>166071.18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2026-02-27 11:07:13</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Delete Node in a BST</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>770</v>
+      </c>
+      <c r="F17" t="n">
+        <v>659</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1429</v>
+      </c>
+      <c r="H17" t="n">
+        <v>188921.39</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2026-02-27 11:14:22</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Unique Binary Search Trees</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>555</v>
+      </c>
+      <c r="F18" t="n">
+        <v>604</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1159</v>
+      </c>
+      <c r="H18" t="n">
+        <v>145395.89</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2026-02-28 23:36:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Kth Largest Element in an Array</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>315</v>
+      </c>
+      <c r="F19" t="n">
+        <v>388</v>
+      </c>
+      <c r="G19" t="n">
+        <v>703</v>
+      </c>
+      <c r="H19" t="n">
+        <v>90379.11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2026-02-28 23:38:01</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Number Of Islands</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>708</v>
+      </c>
+      <c r="F20" t="n">
+        <v>389</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1097</v>
+      </c>
+      <c r="H20" t="n">
+        <v>118460.51</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2026-02-28 23:40:49</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Lowest Common Ancestor of a Binary Tree</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>602</v>
+      </c>
+      <c r="F21" t="n">
+        <v>633</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1235</v>
+      </c>
+      <c r="H21" t="n">
+        <v>165694.71</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2026-02-28 23:44:03</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Course Schedule</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>676</v>
+      </c>
+      <c r="F22" t="n">
+        <v>713</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1389</v>
+      </c>
+      <c r="H22" t="n">
+        <v>191886.46</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2026-02-28 23:46:41</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Unique Binary Search Trees II</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>742</v>
+      </c>
+      <c r="F23" t="n">
+        <v>583</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1325</v>
+      </c>
+      <c r="H23" t="n">
+        <v>155681.71</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2026-02-28 23:49:26</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Kth Smallest Element in a BST</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>609</v>
+      </c>
+      <c r="F24" t="n">
+        <v>633</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1242</v>
+      </c>
+      <c r="H24" t="n">
+        <v>162703.44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2026-02-28 23:59:15</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Binary Tree Right Side View</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>744</v>
+      </c>
+      <c r="F25" t="n">
+        <v>670</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1414</v>
+      </c>
+      <c r="H25" t="n">
+        <v>170533.79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
